--- a/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
+++ b/spMVC_200_Team/DBMS/테이블명세와정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsojeong/work/springMVC/Biz_2021_06_springMVC/spMVC_200_Team/DBMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2983E643-E210-2247-B827-2C69788F5C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAB998-FC50-9D45-B2BF-19DD714BB766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="18260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>한글가변문자열(200)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -939,6 +931,10 @@
   <si>
     <t>스타벅스 주스(병음료)</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1910,6 +1906,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1939,21 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2342,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3001,20 +2997,20 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28">
+      <c r="I2" s="31"/>
+      <c r="J2" s="33">
         <v>44357</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3026,34 +3022,34 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="31"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B5" s="4" t="s">
@@ -3104,7 +3100,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
@@ -3115,7 +3111,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="20" customHeight="1">
+    <row r="7" spans="2:12" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3123,13 +3119,13 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -3154,9 +3150,11 @@
         <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3384,816 +3382,816 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="37.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
-        <v>700</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>148</v>
+      <c r="A1" s="25">
+        <v>700</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>701</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="25">
         <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="25">
         <v>702</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="25">
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>703</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>704</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="25">
+        <v>705</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="25">
+        <v>706</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="25">
+        <v>707</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="25">
+        <v>708</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="25">
+        <v>709</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="25">
+        <v>710</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="25">
+        <v>711</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="25">
+        <v>712</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="25">
+        <v>713</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="25">
+        <v>714</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="25">
+        <v>715</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="25">
+        <v>716</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="25">
+        <v>717</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="25">
+        <v>718</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="25">
+        <v>719</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="25">
+        <v>720</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="25">
+        <v>721</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20">
+      <c r="A23" s="25">
+        <v>722</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="25">
+        <v>723</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="25">
+        <v>724</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25">
+        <v>725</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="25">
+        <v>726</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20">
+      <c r="A28" s="25">
+        <v>727</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="25">
+        <v>728</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="25">
+        <v>729</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="25">
+        <v>730</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20">
+      <c r="A32" s="25">
+        <v>731</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="25">
+        <v>732</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20">
+      <c r="A34" s="25">
+        <v>733</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="25">
+        <v>734</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="25">
+        <v>735</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="25">
+        <v>736</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="25">
+        <v>700</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="25">
+        <v>701</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="C39" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="25">
+        <v>702</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="25">
+        <v>703</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="25">
         <v>704</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="B42" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="25">
         <v>705</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="B43" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="25">
         <v>706</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="B44" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="25">
         <v>707</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
+      <c r="B45" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="25">
         <v>708</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
+      <c r="B46" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="25">
         <v>709</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
+      <c r="B47" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="25">
         <v>710</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
+      <c r="B48" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="25">
         <v>711</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
+      <c r="B49" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="25">
         <v>712</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
+      <c r="B50" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="25">
         <v>713</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
+      <c r="B51" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25">
         <v>714</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
+      <c r="B52" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25">
         <v>715</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35">
+      <c r="B53" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="25">
         <v>716</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35">
+      <c r="B54" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="25">
         <v>717</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="35">
+      <c r="B55" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="25">
         <v>718</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="35">
+      <c r="B56" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="25">
         <v>719</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35">
+      <c r="B57" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="25">
         <v>720</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35">
+      <c r="B58" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="25">
         <v>721</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20">
-      <c r="A23" s="35">
+      <c r="B59" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="25">
         <v>722</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="35">
+      <c r="B60" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="25">
         <v>723</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="35">
+      <c r="B61" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="25">
         <v>724</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="35">
+      <c r="B62" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="25">
         <v>725</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35">
+      <c r="B63" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="25">
         <v>726</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20">
-      <c r="A28" s="35">
+      <c r="B64" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20">
+      <c r="A65" s="25">
         <v>727</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="35">
+      <c r="B65" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="25">
         <v>728</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="35">
+      <c r="B66" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="25">
         <v>729</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="35">
+      <c r="B67" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="25">
         <v>730</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="35">
+      <c r="B68" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20">
+      <c r="A69" s="25">
         <v>731</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="35">
+      <c r="B69" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="25">
         <v>732</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20">
-      <c r="A34" s="35">
+      <c r="B70" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20">
+      <c r="A71" s="25">
         <v>733</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="35">
+      <c r="B71" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="25">
         <v>734</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="35">
+      <c r="B72" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="25">
         <v>735</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="35">
+      <c r="B73" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="25">
         <v>736</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="35">
-        <v>700</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35">
-        <v>701</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="35">
-        <v>702</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="35">
-        <v>703</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="35">
-        <v>704</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="35">
-        <v>705</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35">
-        <v>706</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="35">
-        <v>707</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35">
-        <v>708</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="35">
-        <v>709</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="35">
-        <v>710</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="35">
-        <v>711</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="35">
-        <v>712</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="35">
-        <v>713</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="35">
-        <v>714</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="35">
-        <v>715</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35">
-        <v>716</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="35">
-        <v>717</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="35">
-        <v>718</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="35">
-        <v>719</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="35">
-        <v>720</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="35">
-        <v>721</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20">
-      <c r="A60" s="35">
-        <v>722</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="35">
-        <v>723</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="35">
-        <v>724</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="35">
-        <v>725</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="35">
-        <v>726</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20">
-      <c r="A65" s="35">
-        <v>727</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="35">
-        <v>728</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="35">
-        <v>729</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="35">
-        <v>730</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20">
-      <c r="A69" s="35">
-        <v>731</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="35">
-        <v>732</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20">
-      <c r="A71" s="35">
-        <v>733</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C71" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="35">
-        <v>734</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="35">
-        <v>735</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="35">
-        <v>736</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="35">
+      <c r="B74" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="25">
         <v>700</v>
       </c>
     </row>
@@ -4213,181 +4211,181 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="33.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="33.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>800</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>149</v>
+      <c r="B1" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>801</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25">
+        <v>802</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25">
+        <v>803</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C4" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
-        <v>802</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>804</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C5" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
-        <v>803</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="25">
+        <v>805</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C6" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>804</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="25">
+        <v>806</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C7" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
-        <v>805</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="25">
+        <v>807</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C8" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
-        <v>806</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="25">
+        <v>808</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C9" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
-        <v>807</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="25">
+        <v>809</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C10" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
-        <v>808</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="25">
+        <v>810</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C11" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
-        <v>809</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="25">
+        <v>811</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C12" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
-        <v>810</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="25">
+        <v>812</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C13" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
-        <v>811</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="25">
+        <v>813</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C14" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
-        <v>812</v>
-      </c>
-      <c r="B13" s="35" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="25">
+        <v>814</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C15" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
-        <v>813</v>
-      </c>
-      <c r="B14" s="35" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="25">
+        <v>815</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
-        <v>814</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
-        <v>815</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="C16" s="25">
         <v>800</v>
       </c>
     </row>
@@ -4407,170 +4405,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="24.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="24.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>900</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>256</v>
+      <c r="B1" s="25" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>901</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25">
+        <v>902</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25">
+        <v>903</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C4" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35">
-        <v>902</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>904</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C5" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35">
-        <v>903</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="25">
+        <v>905</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>904</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="25">
+        <v>906</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
-        <v>905</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="25">
+        <v>907</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C8" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35">
-        <v>906</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="25">
+        <v>908</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C9" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35">
-        <v>907</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="25">
+        <v>909</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C10" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="35">
-        <v>908</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="25">
+        <v>910</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C11" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
-        <v>909</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="25">
+        <v>911</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C12" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="35">
-        <v>910</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="25">
+        <v>912</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C13" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35">
-        <v>911</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="25">
+        <v>913</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C14" s="25">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
-        <v>912</v>
-      </c>
-      <c r="B13" s="35" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="25">
+        <v>914</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="35">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
-        <v>913</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="35">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
-        <v>914</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="C15" s="25">
         <v>900</v>
       </c>
     </row>
@@ -4595,858 +4593,858 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="22">
+        <v>100</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="22">
+        <v>101</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="32">
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="22">
+        <v>102</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="22">
+        <v>103</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="22">
+        <v>104</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="22">
+        <v>105</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="22">
+        <v>106</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="22">
+        <v>107</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="22">
+        <v>108</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="22">
+        <v>109</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="22">
+        <v>110</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="22">
+        <v>200</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="22">
+        <v>201</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="22">
+        <v>202</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="22">
+        <v>300</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20">
+      <c r="A17" s="22">
+        <v>301</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20">
+      <c r="A18" s="22">
+        <v>302</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20">
+      <c r="A19" s="22">
+        <v>303</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20">
+      <c r="A20" s="22">
+        <v>304</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20">
+      <c r="A21" s="22">
+        <v>305</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20">
+      <c r="A22" s="22">
+        <v>306</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20">
+      <c r="A23" s="22">
+        <v>307</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20">
+      <c r="A24" s="22">
+        <v>308</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20">
+      <c r="A25" s="22">
+        <v>309</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20">
+      <c r="A26" s="22">
+        <v>310</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20">
+      <c r="A27" s="22">
+        <v>311</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20">
+      <c r="A28" s="22">
+        <v>312</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18">
+      <c r="A29" s="22">
+        <v>313</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="22">
+        <v>314</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20">
+      <c r="A31" s="22">
+        <v>315</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20">
+      <c r="A32" s="22">
+        <v>316</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="22">
+        <v>317</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20">
+      <c r="A34" s="22">
+        <v>318</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20">
+      <c r="A35" s="22">
+        <v>319</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
+      <c r="A36" s="22">
+        <v>320</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="A37" s="22">
+        <v>321</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20">
+      <c r="A38" s="22">
+        <v>322</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18">
+      <c r="A39" s="22">
+        <v>323</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20">
+      <c r="A40" s="22">
+        <v>324</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20">
+      <c r="A41" s="22">
+        <v>325</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18">
+      <c r="A42" s="22">
+        <v>326</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18">
+      <c r="A43" s="22">
+        <v>327</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20">
+      <c r="A44" s="22">
+        <v>328</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20">
+      <c r="A45" s="22">
+        <v>329</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20">
+      <c r="A46" s="22">
+        <v>330</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20">
+      <c r="A47" s="22">
+        <v>331</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
+      <c r="A48" s="22">
+        <v>400</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="22">
+        <v>401</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="22">
+        <v>402</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="22">
+        <v>403</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="22">
+        <v>404</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="22">
+        <v>405</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="22">
+        <v>406</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="22">
+        <v>407</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18">
+      <c r="A56" s="22">
+        <v>408</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18">
+      <c r="A57" s="22">
+        <v>409</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18">
+      <c r="A58" s="22">
+        <v>410</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="22">
+        <v>411</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18">
+      <c r="A60" s="22">
+        <v>412</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18">
+      <c r="A61" s="22">
+        <v>413</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18">
+      <c r="A62" s="22">
+        <v>414</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18">
+      <c r="A63" s="22">
+        <v>415</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18">
+      <c r="A64" s="22">
+        <v>416</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18">
+      <c r="A65" s="22">
+        <v>500</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="22">
+        <v>501</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18">
+      <c r="A67" s="22">
+        <v>502</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18">
+      <c r="A68" s="22">
+        <v>503</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="32">
+    </row>
+    <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="22">
+        <v>504</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="32">
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="22">
+        <v>505</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="32">
+    </row>
+    <row r="71" spans="1:2" ht="18">
+      <c r="A71" s="22">
+        <v>506</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="32">
+    </row>
+    <row r="72" spans="1:2" ht="18">
+      <c r="A72" s="22">
+        <v>507</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="32">
+    </row>
+    <row r="73" spans="1:2" ht="18">
+      <c r="A73" s="22">
+        <v>600</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="32">
+    </row>
+    <row r="74" spans="1:2" ht="18">
+      <c r="A74" s="22">
+        <v>601</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="32">
+    </row>
+    <row r="75" spans="1:2" ht="18">
+      <c r="A75" s="22">
+        <v>602</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="32">
+    </row>
+    <row r="76" spans="1:2" ht="18">
+      <c r="A76" s="22">
+        <v>603</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="32">
+    </row>
+    <row r="77" spans="1:2" ht="18">
+      <c r="A77" s="22">
+        <v>800</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="32">
+    </row>
+    <row r="78" spans="1:2" ht="18">
+      <c r="A78" s="22">
+        <v>801</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="32">
-        <v>200</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="32">
-        <v>201</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="32">
-        <v>202</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" s="32">
-        <v>300</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20">
-      <c r="A17" s="32">
-        <v>301</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20">
-      <c r="A18" s="32">
-        <v>302</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20">
-      <c r="A19" s="32">
-        <v>303</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20">
-      <c r="A20" s="32">
-        <v>304</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20">
-      <c r="A21" s="32">
-        <v>305</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20">
-      <c r="A22" s="32">
-        <v>306</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20">
-      <c r="A23" s="32">
-        <v>307</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20">
-      <c r="A24" s="32">
-        <v>308</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20">
-      <c r="A25" s="32">
-        <v>309</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20">
-      <c r="A26" s="32">
-        <v>310</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20">
-      <c r="A27" s="32">
-        <v>311</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20">
-      <c r="A28" s="32">
-        <v>312</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="32">
-        <v>313</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="32">
-        <v>314</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20">
-      <c r="A31" s="32">
-        <v>315</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="20">
-      <c r="A32" s="32">
-        <v>316</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="32">
-        <v>317</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20">
-      <c r="A34" s="32">
-        <v>318</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20">
-      <c r="A35" s="32">
-        <v>319</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18">
-      <c r="A36" s="32">
-        <v>320</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="32">
-        <v>321</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20">
-      <c r="A38" s="32">
-        <v>322</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="32">
-        <v>323</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20">
-      <c r="A40" s="32">
-        <v>324</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20">
-      <c r="A41" s="32">
-        <v>325</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18">
-      <c r="A42" s="32">
-        <v>326</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18">
-      <c r="A43" s="32">
-        <v>327</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20">
-      <c r="A44" s="32">
-        <v>328</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20">
-      <c r="A45" s="32">
-        <v>329</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20">
-      <c r="A46" s="32">
-        <v>330</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20">
-      <c r="A47" s="32">
-        <v>331</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18">
-      <c r="A48" s="32">
-        <v>400</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="32">
-        <v>401</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18">
-      <c r="A50" s="32">
-        <v>402</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18">
-      <c r="A51" s="32">
-        <v>403</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18">
-      <c r="A52" s="32">
-        <v>404</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="32">
-        <v>405</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="32">
-        <v>406</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="32">
-        <v>407</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18">
-      <c r="A56" s="32">
-        <v>408</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18">
-      <c r="A57" s="32">
-        <v>409</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18">
-      <c r="A58" s="32">
-        <v>410</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18">
-      <c r="A59" s="32">
-        <v>411</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="32">
-        <v>412</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="32">
-        <v>413</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="32">
-        <v>414</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="32">
-        <v>415</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="32">
-        <v>416</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="32">
-        <v>500</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="32">
-        <v>501</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="32">
-        <v>502</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="32">
-        <v>503</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="32">
-        <v>504</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18">
-      <c r="A70" s="32">
-        <v>505</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18">
-      <c r="A71" s="32">
-        <v>506</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18">
-      <c r="A72" s="32">
-        <v>507</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18">
-      <c r="A73" s="32">
-        <v>600</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18">
-      <c r="A74" s="32">
-        <v>601</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18">
-      <c r="A75" s="32">
-        <v>602</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18">
-      <c r="A76" s="32">
-        <v>603</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18">
-      <c r="A77" s="32">
-        <v>800</v>
-      </c>
-      <c r="B77" s="32" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="18">
+      <c r="A79" s="22">
+        <v>802</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18">
-      <c r="A78" s="32">
-        <v>801</v>
-      </c>
-      <c r="B78" s="32" t="s">
+    <row r="80" spans="1:2" ht="18">
+      <c r="A80" s="22">
+        <v>803</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18">
-      <c r="A79" s="32">
-        <v>802</v>
-      </c>
-      <c r="B79" s="32" t="s">
+    <row r="81" spans="1:2" ht="18">
+      <c r="A81" s="22">
+        <v>804</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18">
-      <c r="A80" s="32">
-        <v>803</v>
-      </c>
-      <c r="B80" s="32" t="s">
+    <row r="82" spans="1:2" ht="18">
+      <c r="A82" s="22">
+        <v>805</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18">
-      <c r="A81" s="32">
-        <v>804</v>
-      </c>
-      <c r="B81" s="32" t="s">
+    <row r="83" spans="1:2" ht="18">
+      <c r="A83" s="22">
+        <v>806</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18">
-      <c r="A82" s="32">
-        <v>805</v>
-      </c>
-      <c r="B82" s="32" t="s">
+    <row r="84" spans="1:2" ht="18">
+      <c r="A84" s="22">
+        <v>807</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18">
-      <c r="A83" s="32">
-        <v>806</v>
-      </c>
-      <c r="B83" s="32" t="s">
+    <row r="85" spans="1:2" ht="18">
+      <c r="A85" s="22">
+        <v>808</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18">
-      <c r="A84" s="32">
-        <v>807</v>
-      </c>
-      <c r="B84" s="32" t="s">
+    <row r="86" spans="1:2" ht="18">
+      <c r="A86" s="22">
+        <v>809</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18">
-      <c r="A85" s="32">
-        <v>808</v>
-      </c>
-      <c r="B85" s="32" t="s">
+    <row r="87" spans="1:2" ht="18">
+      <c r="A87" s="22">
+        <v>810</v>
+      </c>
+      <c r="B87" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18">
-      <c r="A86" s="32">
-        <v>809</v>
-      </c>
-      <c r="B86" s="32" t="s">
+    <row r="88" spans="1:2" ht="18">
+      <c r="A88" s="22">
+        <v>811</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18">
-      <c r="A87" s="32">
-        <v>810</v>
-      </c>
-      <c r="B87" s="32" t="s">
+    <row r="89" spans="1:2" ht="18">
+      <c r="A89" s="22">
+        <v>812</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18">
-      <c r="A88" s="32">
-        <v>811</v>
-      </c>
-      <c r="B88" s="32" t="s">
+    <row r="90" spans="1:2" ht="18">
+      <c r="A90" s="22">
+        <v>813</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18">
-      <c r="A89" s="32">
-        <v>812</v>
-      </c>
-      <c r="B89" s="32" t="s">
+    <row r="91" spans="1:2" ht="18">
+      <c r="A91" s="22">
+        <v>814</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18">
-      <c r="A90" s="32">
-        <v>813</v>
-      </c>
-      <c r="B90" s="32" t="s">
+    <row r="92" spans="1:2" ht="18">
+      <c r="A92" s="22">
+        <v>815</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18">
-      <c r="A91" s="32">
-        <v>814</v>
-      </c>
-      <c r="B91" s="32" t="s">
+    <row r="93" spans="1:2" ht="18">
+      <c r="A93" s="22">
+        <v>900</v>
+      </c>
+      <c r="B93" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18">
-      <c r="A92" s="32">
-        <v>815</v>
-      </c>
-      <c r="B92" s="32" t="s">
+    <row r="94" spans="1:2" ht="18">
+      <c r="A94" s="22">
+        <v>901</v>
+      </c>
+      <c r="B94" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18">
-      <c r="A93" s="32">
-        <v>900</v>
-      </c>
-      <c r="B93" s="32" t="s">
+    <row r="95" spans="1:2" ht="18">
+      <c r="A95" s="22">
+        <v>902</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18">
-      <c r="A94" s="32">
-        <v>901</v>
-      </c>
-      <c r="B94" s="32" t="s">
+    <row r="96" spans="1:2" ht="18">
+      <c r="A96" s="22">
+        <v>903</v>
+      </c>
+      <c r="B96" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18">
-      <c r="A95" s="32">
-        <v>902</v>
-      </c>
-      <c r="B95" s="32" t="s">
+    <row r="97" spans="1:2" ht="18">
+      <c r="A97" s="22">
+        <v>904</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18">
-      <c r="A96" s="32">
-        <v>903</v>
-      </c>
-      <c r="B96" s="32" t="s">
+    <row r="98" spans="1:2" ht="18">
+      <c r="A98" s="22">
+        <v>905</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18">
-      <c r="A97" s="32">
-        <v>904</v>
-      </c>
-      <c r="B97" s="32" t="s">
+    <row r="99" spans="1:2" ht="18">
+      <c r="A99" s="22">
+        <v>906</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18">
-      <c r="A98" s="32">
-        <v>905</v>
-      </c>
-      <c r="B98" s="32" t="s">
+    <row r="100" spans="1:2" ht="18">
+      <c r="A100" s="22">
+        <v>907</v>
+      </c>
+      <c r="B100" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18">
-      <c r="A99" s="32">
-        <v>906</v>
-      </c>
-      <c r="B99" s="32" t="s">
+    <row r="101" spans="1:2" ht="18">
+      <c r="A101" s="22">
+        <v>908</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18">
-      <c r="A100" s="32">
-        <v>907</v>
-      </c>
-      <c r="B100" s="32" t="s">
+    <row r="102" spans="1:2" ht="18">
+      <c r="A102" s="22">
+        <v>909</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18">
-      <c r="A101" s="32">
-        <v>908</v>
-      </c>
-      <c r="B101" s="32" t="s">
+    <row r="103" spans="1:2" ht="18">
+      <c r="A103" s="22">
+        <v>910</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18">
-      <c r="A102" s="32">
-        <v>909</v>
-      </c>
-      <c r="B102" s="32" t="s">
+    <row r="104" spans="1:2" ht="18">
+      <c r="A104" s="22">
+        <v>911</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18">
-      <c r="A103" s="32">
-        <v>910</v>
-      </c>
-      <c r="B103" s="32" t="s">
+    <row r="105" spans="1:2" ht="18">
+      <c r="A105" s="22">
+        <v>912</v>
+      </c>
+      <c r="B105" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18">
-      <c r="A104" s="32">
-        <v>911</v>
-      </c>
-      <c r="B104" s="32" t="s">
+    <row r="106" spans="1:2" ht="18">
+      <c r="A106" s="22">
+        <v>913</v>
+      </c>
+      <c r="B106" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18">
-      <c r="A105" s="32">
-        <v>912</v>
-      </c>
-      <c r="B105" s="32" t="s">
+    <row r="107" spans="1:2" ht="18">
+      <c r="A107" s="22">
+        <v>914</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18">
-      <c r="A106" s="32">
-        <v>913</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18">
-      <c r="A107" s="32">
-        <v>914</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5470,81 +5468,81 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18">
       <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="32">
+        <v>140</v>
+      </c>
+      <c r="B2" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="32">
+        <v>141</v>
+      </c>
+      <c r="B3" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18">
       <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="32">
+        <v>142</v>
+      </c>
+      <c r="B4" s="22">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="34">
+        <v>143</v>
+      </c>
+      <c r="B5" s="24">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18">
       <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="32">
+        <v>144</v>
+      </c>
+      <c r="B6" s="22">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18">
       <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="32">
+        <v>145</v>
+      </c>
+      <c r="B7" s="22">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18">
       <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="32">
+        <v>146</v>
+      </c>
+      <c r="B8" s="22">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
       <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="32">
+        <v>147</v>
+      </c>
+      <c r="B9" s="22">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
       <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="32">
+        <v>148</v>
+      </c>
+      <c r="B10" s="22">
         <v>900</v>
       </c>
     </row>
@@ -5558,133 +5556,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF3332F-D751-0B48-9FF0-781ED039E951}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="29.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="29.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>100</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>162</v>
+      <c r="B1" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>101</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="25">
         <v>102</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>103</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="A5" s="25">
         <v>104</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>105</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="A7" s="25">
         <v>106</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="A8" s="25">
         <v>107</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35">
+      <c r="A9" s="25">
         <v>108</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35">
+      <c r="A10" s="25">
         <v>109</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35">
+      <c r="A11" s="25">
         <v>110</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="25">
         <v>100</v>
       </c>
     </row>
@@ -5704,45 +5702,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="35"/>
-    <col min="4" max="4" width="10.1640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="3" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="10.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="35">
+      <c r="A1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="25">
         <v>200</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>143</v>
+      <c r="E1" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="D2" s="35">
+      <c r="D2" s="25">
         <v>201</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="E2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="25">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="D3" s="35">
+      <c r="D3" s="25">
         <v>202</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="E3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="25">
         <v>200</v>
       </c>
     </row>
@@ -5762,357 +5760,357 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="36.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>300</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>144</v>
+      <c r="B1" s="25" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>301</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="25">
+        <v>302</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20">
+      <c r="A4" s="25">
+        <v>303</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C4" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20">
-      <c r="A3" s="35">
-        <v>302</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="35">
+    <row r="5" spans="1:3" ht="20">
+      <c r="A5" s="25">
+        <v>304</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20">
-      <c r="A4" s="35">
-        <v>303</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="35">
+    <row r="6" spans="1:3" ht="20">
+      <c r="A6" s="25">
+        <v>305</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20">
-      <c r="A5" s="35">
-        <v>304</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="35">
+    <row r="7" spans="1:3" ht="20">
+      <c r="A7" s="25">
+        <v>306</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20">
-      <c r="A6" s="35">
-        <v>305</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="35">
+    <row r="8" spans="1:3" ht="20">
+      <c r="A8" s="25">
+        <v>307</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20">
-      <c r="A7" s="35">
-        <v>306</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="35">
+    <row r="9" spans="1:3" ht="20">
+      <c r="A9" s="25">
+        <v>308</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20">
-      <c r="A8" s="35">
-        <v>307</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="35">
+    <row r="10" spans="1:3" ht="20">
+      <c r="A10" s="25">
+        <v>309</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20">
-      <c r="A9" s="35">
-        <v>308</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="35">
+    <row r="11" spans="1:3" ht="20">
+      <c r="A11" s="25">
+        <v>310</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20">
-      <c r="A10" s="35">
-        <v>309</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="35">
+    <row r="12" spans="1:3" ht="20">
+      <c r="A12" s="25">
+        <v>311</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20">
-      <c r="A11" s="35">
-        <v>310</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="35">
+    <row r="13" spans="1:3" ht="20">
+      <c r="A13" s="25">
+        <v>312</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20">
-      <c r="A12" s="35">
-        <v>311</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="35">
+    <row r="14" spans="1:3">
+      <c r="A14" s="25">
+        <v>313</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20">
-      <c r="A13" s="35">
-        <v>312</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="35">
+    <row r="15" spans="1:3">
+      <c r="A15" s="25">
+        <v>314</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
-        <v>313</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="35">
+    <row r="16" spans="1:3" ht="20">
+      <c r="A16" s="25">
+        <v>315</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="35">
-        <v>314</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="35">
+    <row r="17" spans="1:3" ht="20">
+      <c r="A17" s="25">
+        <v>316</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="35">
-        <v>315</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="35">
+    <row r="18" spans="1:3">
+      <c r="A18" s="25">
+        <v>317</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20">
-      <c r="A17" s="35">
-        <v>316</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="35">
+    <row r="19" spans="1:3" ht="20">
+      <c r="A19" s="25">
+        <v>318</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35">
-        <v>317</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="35">
+    <row r="20" spans="1:3" ht="20">
+      <c r="A20" s="25">
+        <v>319</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20">
-      <c r="A19" s="35">
-        <v>318</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="35">
+    <row r="21" spans="1:3">
+      <c r="A21" s="25">
+        <v>320</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20">
-      <c r="A20" s="35">
-        <v>319</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="35">
+    <row r="22" spans="1:3">
+      <c r="A22" s="25">
+        <v>321</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35">
-        <v>320</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="35">
+    <row r="23" spans="1:3" ht="20">
+      <c r="A23" s="25">
+        <v>322</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35">
-        <v>321</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="35">
+    <row r="24" spans="1:3">
+      <c r="A24" s="25">
+        <v>323</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20">
-      <c r="A23" s="35">
-        <v>322</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="35">
+    <row r="25" spans="1:3" ht="20">
+      <c r="A25" s="25">
+        <v>324</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="35">
-        <v>323</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="35">
+    <row r="26" spans="1:3" ht="20">
+      <c r="A26" s="25">
+        <v>325</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20">
-      <c r="A25" s="35">
-        <v>324</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="35">
+    <row r="27" spans="1:3">
+      <c r="A27" s="25">
+        <v>326</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20">
-      <c r="A26" s="35">
-        <v>325</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="35">
+    <row r="28" spans="1:3">
+      <c r="A28" s="25">
+        <v>327</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35">
-        <v>326</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="35">
+    <row r="29" spans="1:3" ht="20">
+      <c r="A29" s="25">
+        <v>328</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="35">
-        <v>327</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="35">
+    <row r="30" spans="1:3" ht="20">
+      <c r="A30" s="25">
+        <v>329</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20">
-      <c r="A29" s="35">
-        <v>328</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="35">
+    <row r="31" spans="1:3" ht="20">
+      <c r="A31" s="25">
+        <v>330</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="25">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20">
-      <c r="A30" s="35">
-        <v>329</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="35">
-        <v>330</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="35">
-        <v>300</v>
-      </c>
-    </row>
     <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="35">
+      <c r="A32" s="25">
         <v>331</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="35">
+      <c r="B32" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="25">
         <v>300</v>
       </c>
     </row>
@@ -6132,192 +6130,192 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="36.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>400</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>145</v>
+      <c r="B1" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>401</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="25">
         <v>402</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>403</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="A5" s="25">
         <v>404</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>405</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="A7" s="25">
         <v>406</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="A8" s="25">
         <v>407</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35">
+      <c r="A9" s="25">
         <v>408</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35">
+      <c r="A10" s="25">
         <v>409</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35">
+      <c r="A11" s="25">
         <v>410</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35">
+      <c r="A12" s="25">
         <v>411</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="35">
+      <c r="B12" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35">
+      <c r="A13" s="25">
         <v>412</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="B13" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35">
+      <c r="A14" s="25">
         <v>413</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="35">
+      <c r="B14" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="35">
+      <c r="A15" s="25">
         <v>414</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="35">
+      <c r="A16" s="25">
         <v>415</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B16" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="25">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="35">
+      <c r="A17" s="25">
         <v>416</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="25">
         <v>400</v>
       </c>
     </row>
@@ -6337,93 +6335,93 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="31.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="31.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>500</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>146</v>
+      <c r="B1" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>501</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="25">
         <v>502</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>503</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="A5" s="25">
         <v>504</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="A6" s="25">
         <v>505</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="A7" s="25">
         <v>506</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="25">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="A8" s="25">
         <v>507</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="25">
         <v>500</v>
       </c>
     </row>
@@ -6443,49 +6441,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="32.5" style="35" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="35"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="32.5" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35">
+      <c r="A1" s="25">
         <v>600</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>219</v>
+      <c r="B1" s="25" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>601</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="35">
+      <c r="B2" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="25">
         <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="25">
         <v>602</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="25">
         <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="25">
         <v>603</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="25">
         <v>600</v>
       </c>
     </row>
